--- a/szxc_data_cleaning/tests/import/5出租房(非家庭房屋)_导入模板.xlsx
+++ b/szxc_data_cleaning/tests/import/5出租房(非家庭房屋)_导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelate\Documents\smalltools\Small-Tools\szxc_data_cleaning\tests\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9E2BF8-865E-4DDC-B16D-17546B875DE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478659C9-CAB5-48BB-AE3B-F66A2C71882B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>序号</t>
   </si>
@@ -77,6 +77,52 @@
   </si>
   <si>
     <t>与家庭房屋不同</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出租房类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>T011</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1组22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1组23</t>
+  </si>
+  <si>
+    <t>1组24</t>
+  </si>
+  <si>
+    <t>1组25</t>
+  </si>
+  <si>
+    <t>1组26</t>
+  </si>
+  <si>
+    <t>1组27</t>
+  </si>
+  <si>
+    <t>T012</t>
+  </si>
+  <si>
+    <t>T013</t>
+  </si>
+  <si>
+    <t>T014</t>
+  </si>
+  <si>
+    <t>T015</t>
+  </si>
+  <si>
+    <t>T016</t>
+  </si>
+  <si>
+    <t>微信</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -208,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -227,13 +273,62 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -582,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B82A73F-58A1-4CF4-B702-85BF46CA0DCC}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -608,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
@@ -646,15 +741,129 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="3"/>
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>12345678901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>12345678901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>12345678901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>12345678901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>12345678901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>12345678901</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -678,7 +887,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -719,5 +928,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>